--- a/students.xlsx
+++ b/students.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandipan Sasmal\Desktop\python mini proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266C50E7-35B2-4836-A2A6-A0DBC8587708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261001B6-9F81-47FB-841B-E946D7D2621E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="912" windowWidth="20784" windowHeight="9420" xr2:uid="{EEB12A20-B0A4-4A81-AE08-4741E04F8A7E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{EEB12A20-B0A4-4A81-AE08-4741E04F8A7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Name</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Kasturi Burman</t>
+  </si>
+  <si>
+    <t>Rebanta Biswas</t>
   </si>
 </sst>
 </file>
@@ -400,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88D287C2-7191-474D-9E0B-2D562003F23C}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -444,6 +447,14 @@
         <v>124</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/students.xlsx
+++ b/students.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandipan Sasmal\Desktop\python mini proj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261001B6-9F81-47FB-841B-E946D7D2621E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1082AA0-4C2B-4119-AF6A-BE4C2870384E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{EEB12A20-B0A4-4A81-AE08-4741E04F8A7E}"/>
+    <workbookView xWindow="0" yWindow="2220" windowWidth="22560" windowHeight="9420" xr2:uid="{EEB12A20-B0A4-4A81-AE08-4741E04F8A7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -406,7 +406,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/students.xlsx
+++ b/students.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandipan Sasmal\Desktop\python mini proj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandipan Sasmal\Desktop\Attendance-Tracker-Python-Project-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1082AA0-4C2B-4119-AF6A-BE4C2870384E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25708CF1-DF5C-46F4-A33A-9BC014AC9965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2220" windowWidth="22560" windowHeight="9420" xr2:uid="{EEB12A20-B0A4-4A81-AE08-4741E04F8A7E}"/>
+    <workbookView xWindow="0" yWindow="3456" windowWidth="22560" windowHeight="9420" xr2:uid="{EEB12A20-B0A4-4A81-AE08-4741E04F8A7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -45,13 +45,25 @@
     <t>Sandipan Sasmal</t>
   </si>
   <si>
-    <t>Apratim Halder</t>
-  </si>
-  <si>
-    <t>Kasturi Burman</t>
-  </si>
-  <si>
     <t>Rebanta Biswas</t>
+  </si>
+  <si>
+    <t>Misbah Rahaman</t>
+  </si>
+  <si>
+    <t>Sagnik Kumbhakar</t>
+  </si>
+  <si>
+    <t>Samaira Shaw</t>
+  </si>
+  <si>
+    <t>Linika Agarwal</t>
+  </si>
+  <si>
+    <t>Priyanshu Roy</t>
+  </si>
+  <si>
+    <t>Prakriti Samanta</t>
   </si>
 </sst>
 </file>
@@ -403,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88D287C2-7191-474D-9E0B-2D562003F23C}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -425,34 +437,66 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>110</v>
+        <v>10900223069</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>111</v>
+        <v>10900223078</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>124</v>
+        <v>10900223084</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>10900223089</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>10900223098</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>98</v>
+      <c r="B7">
+        <v>10900223107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>10900223110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>10900223111</v>
       </c>
     </row>
   </sheetData>
